--- a/biology/Zoologie/Cornufer_guppyi/Cornufer_guppyi.xlsx
+++ b/biology/Zoologie/Cornufer_guppyi/Cornufer_guppyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornufer guppyi est une espèce d'amphibiens de la famille des Ceratobatrachidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornufer guppyi est une espèce d'amphibiens de la famille des Ceratobatrachidae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce se rencontre jusqu'à 700 m d'altitude :
 en Papouasie-Nouvelle-Guinée en Nouvelle-Bretagne et à Bougainville,
-aux Salomon à Choiseul, en Nouvelle-Géorgie, à Santa Isabel, à Malaita et à Guadalcanal[1].</t>
+aux Salomon à Choiseul, en Nouvelle-Géorgie, à Santa Isabel, à Malaita et à Guadalcanal.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Henry Brougham Guppy (1854-1926)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Henry Brougham Guppy (1854-1926).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornufer guppyi Boulenger, 1884 est un synonyme de Cornufer hedigeri Brown, Siler, Richards, Diesmos &amp; Cannatella, 2015.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1884 : Diagnoses of new reptiles and batrachians from the Solomon Islands, collected and presented to the British Museum by H. B. Guppy, Esq., M.B., H.M.S. Lark. Proceedings of the Zoological Society of London, vol. 1884, p. 210-213 (texte intégral).</t>
         </is>
